--- a/Source/server/src/templates/GradeBoardExport.xlsx
+++ b/Source/server/src/templates/GradeBoardExport.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viet-cuong\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4B3F07-C545-4DE3-8B8F-AF0F3B34506F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EB58ED-92AE-4D86-AA7C-84468ABC564B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A1:$F10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Student ID</t>
   </si>
@@ -37,13 +27,22 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Midterm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,49 +56,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -110,16 +81,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,52 +372,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source/server/src/templates/GradeBoardExport.xlsx
+++ b/Source/server/src/templates/GradeBoardExport.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EB58ED-92AE-4D86-AA7C-84468ABC564B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A1:$F10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A1:$F10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Student ID</t>
   </si>
@@ -36,25 +35,52 @@
   </si>
   <si>
     <t>Midterm</t>
+  </si>
+  <si>
+    <t>19120465</t>
+  </si>
+  <si>
+    <t>Tran Vu Viet Cuong - upload after</t>
+  </si>
+  <si>
+    <t>50.00000</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>19120466</t>
+  </si>
+  <si>
+    <t>Cao Minh Tri</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>0.00000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,18 +397,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="pageBreakPreview"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="17.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -406,27 +431,53 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="5"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>